--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,187 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_5</t>
+          <t>model_10_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4293522481843679</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-70.51550661809931</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.147323536781663</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.61831005904637</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F2" t="n">
-        <v>1.581871867179871</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>5.817829608917236</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H2" t="n">
-        <v>4.446848392486572</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I2" t="n">
-        <v>5.172663688659668</v>
+        <v>0.2685717940330505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_4</t>
+          <t>model_10_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3874627537010853</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-68.9924813441435</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.004864294169062</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.444182739692287</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F3" t="n">
-        <v>1.535512566566467</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>5.693930625915527</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H3" t="n">
-        <v>4.24556827545166</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I3" t="n">
-        <v>5.012348175048828</v>
+        <v>0.2685717940330505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_3</t>
+          <t>model_10_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.142499278415414</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-54.58106638704043</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.555512892942303</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.445525563946275</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F4" t="n">
-        <v>1.264410018920898</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>4.521553516387939</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H4" t="n">
-        <v>3.610680103302002</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I4" t="n">
-        <v>4.092905044555664</v>
+        <v>0.2685717940330505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_2</t>
+          <t>model_10_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02185027065254563</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-44.09783713714535</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.501557278828716</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.916173972947651</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F5" t="n">
-        <v>1.130887150764465</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>3.668736457824707</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H5" t="n">
-        <v>3.534446239471436</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I5" t="n">
-        <v>3.605541706085205</v>
+        <v>0.2685717940330505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_1</t>
+          <t>model_10_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1810705546829512</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-30.58742832391437</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.242876320681518</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.097368537285951</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9063135981559753</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>2.569656372070312</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H6" t="n">
-        <v>3.168956518173218</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I6" t="n">
-        <v>2.851684093475342</v>
+        <v>0.2685717940330505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_2_0</t>
+          <t>model_10_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5770593131196866</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.292980026106664</v>
+        <v>0.1307753573223326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4714906625329457</v>
+        <v>0.751114419500955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4175043853311814</v>
+        <v>0.7118636228054211</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4680707156658173</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3492365181446075</v>
+        <v>0.09964749217033386</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7467300295829773</v>
+        <v>0.4586117267608643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5362918376922607</v>
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_17</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_16</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_14</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_13</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_23</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_8</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_7</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_6</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2685717940330505</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_10_2_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6731329884640765</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1307753573223326</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.751114419500955</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7118636228054211</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3617455065250397</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09964749217033386</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4586117267608643</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2685717940330505</v>
       </c>
     </row>
   </sheetData>
